--- a/biology/Médecine/Syndrome_CHILD/Syndrome_CHILD.xlsx
+++ b/biology/Médecine/Syndrome_CHILD/Syndrome_CHILD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome CHILD  (acronyme de Congenital Hemidysplasia, Ichthyosiform erythroderma  Limb Defects) est une pathologie rare associant :
 Un défaut de développement net d'un hémi corps suivant un axe sagittal, souvent le droit plus souvent que le gauche
@@ -514,7 +526,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hémidysplasie congénitale avec érythrodermie ichtyosiforme et anomalies des membres</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mutation du gène NSDHL situé sur le locus q28 du chromosome X codant le NAD(P)H stéroïde déshydrogènase impliqué dans la synthèse de la 3 beta hydroxistéroide-déshydrogènase de la synthèse du cholestérol.</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'érythème cutané est du côté de l'hémi-corps hypoplasique mais parfois peut être la seule manifestation de la maladie
 Les organes du côté atteint sont de taille réduite. Les malformations cardiaques sont fréquentes en cas d'atteinte gauche. Les membres sont hypoplasiques ou complètement absents</t>
@@ -605,7 +623,9 @@
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Transmission dominante liée à l’X. Le syndrome CHILD est létal pour le sujet masculin.
 </t>
@@ -636,9 +656,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'existe pas de traitement spécifique à l'heure actuelle. Les thérapies visent essentiellement à réduire la morbidité et à empêcher les complications[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe pas de traitement spécifique à l'heure actuelle. Les thérapies visent essentiellement à réduire la morbidité et à empêcher les complications.
 </t>
         </is>
       </c>
